--- a/bbb.xlsx
+++ b/bbb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E8E981-5F12-4738-BA96-3AFC0493A739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CFBDCF-E533-408A-B4BA-842491A9671A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2555,26 +2555,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2582,14 +2591,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2600,40 +2621,76 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2645,80 +2702,71 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="27" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="27" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="27" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2726,44 +2774,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="27" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="27" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2792,32 +2840,17 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2825,91 +2858,58 @@
     <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="27" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="27" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="29" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3334,56 +3334,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="81.75" customHeight="1">
-      <c r="A1" s="117" t="str">
+      <c r="A1" s="139" t="str">
         <f>C7</f>
         <v>PROMETAL INTERNATIONAL CO., LTD</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -3405,19 +3405,19 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="27">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3447,32 +3447,32 @@
         <v>4</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="121" t="s">
+      <c r="G7" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="122" t="s">
+      <c r="H7" s="120"/>
+      <c r="I7" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
     </row>
     <row r="8" spans="1:14" ht="16.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
     </row>
     <row r="9" spans="1:14" ht="16.5">
       <c r="A9" s="4" t="s">
@@ -3481,15 +3481,15 @@
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="130">
+      <c r="H9" s="120"/>
+      <c r="I9" s="137">
         <v>44672</v>
       </c>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
       <c r="L9" s="7"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -3554,15 +3554,15 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="118"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
@@ -3613,28 +3613,28 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="127" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="124" t="s">
+      <c r="D17" s="127" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="126"/>
       <c r="F17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="124" t="s">
+      <c r="G17" s="127" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="126"/>
       <c r="I17" s="126"/>
-      <c r="J17" s="124" t="s">
+      <c r="J17" s="127" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="126"/>
@@ -3643,27 +3643,27 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A18" s="125"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="127" t="s">
+      <c r="C18" s="128"/>
+      <c r="D18" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="125"/>
+      <c r="E18" s="128"/>
       <c r="F18" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="127" t="s">
+      <c r="G18" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="127" t="s">
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="125"/>
+      <c r="K18" s="128"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3675,7 +3675,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="134"/>
+      <c r="G19" s="130"/>
       <c r="H19" s="126"/>
       <c r="I19" s="126"/>
       <c r="J19" s="126"/>
@@ -3694,10 +3694,10 @@
       <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="118"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="11">
         <v>12</v>
       </c>
@@ -3729,10 +3729,10 @@
       <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="128" t="s">
+      <c r="D21" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="118"/>
+      <c r="E21" s="120"/>
       <c r="F21" s="11">
         <v>4</v>
       </c>
@@ -3764,10 +3764,10 @@
       <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="128" t="s">
+      <c r="D22" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="118"/>
+      <c r="E22" s="120"/>
       <c r="F22" s="11">
         <v>5</v>
       </c>
@@ -3799,10 +3799,10 @@
       <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="128" t="s">
+      <c r="D23" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="118"/>
+      <c r="E23" s="120"/>
       <c r="F23" s="11">
         <v>4</v>
       </c>
@@ -3857,8 +3857,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="118"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="120"/>
       <c r="K25" s="16"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -3888,13 +3888,13 @@
       <c r="C27" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -3908,13 +3908,13 @@
       <c r="C28" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="118"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3982,15 +3982,15 @@
         <v>47</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="128" t="s">
+      <c r="C32" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -4081,38 +4081,38 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A37" s="128" t="s">
+      <c r="A37" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="118"/>
+      <c r="B37" s="120"/>
       <c r="C37" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A38" s="118"/>
-      <c r="B38" s="118"/>
+      <c r="A38" s="120"/>
+      <c r="B38" s="120"/>
       <c r="C38" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -4139,16 +4139,16 @@
         <v>63</v>
       </c>
       <c r="B40" s="27"/>
-      <c r="C40" s="138" t="s">
+      <c r="C40" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="139"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="139"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
       <c r="K40" s="27"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -4159,16 +4159,16 @@
         <v>64</v>
       </c>
       <c r="B41" s="29"/>
-      <c r="C41" s="128" t="s">
+      <c r="C41" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="118"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120"/>
       <c r="K41" s="29"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -4179,16 +4179,16 @@
         <v>66</v>
       </c>
       <c r="B42" s="29"/>
-      <c r="C42" s="128" t="s">
+      <c r="C42" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="120"/>
       <c r="K42" s="29"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -4199,16 +4199,16 @@
         <v>68</v>
       </c>
       <c r="B43" s="29"/>
-      <c r="C43" s="128" t="s">
+      <c r="C43" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="118"/>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="118"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="120"/>
       <c r="K43" s="29"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -4219,16 +4219,16 @@
         <v>70</v>
       </c>
       <c r="B44" s="31"/>
-      <c r="C44" s="140" t="s">
+      <c r="C44" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
-      <c r="G44" s="141"/>
-      <c r="H44" s="141"/>
-      <c r="I44" s="141"/>
-      <c r="J44" s="141"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
       <c r="K44" s="31"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -4269,19 +4269,19 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" ht="36" customHeight="1">
-      <c r="A47" s="135" t="s">
+      <c r="A47" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="120"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -4303,19 +4303,19 @@
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A49" s="135" t="s">
+      <c r="A49" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="118"/>
-      <c r="K49" s="118"/>
+      <c r="B49" s="120"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="120"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -4337,19 +4337,19 @@
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A51" s="135" t="s">
+      <c r="A51" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="118"/>
-      <c r="K51" s="118"/>
+      <c r="B51" s="120"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
+      <c r="K51" s="120"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -4371,19 +4371,19 @@
       <c r="N52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A53" s="136" t="s">
+      <c r="A53" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="118"/>
-      <c r="H53" s="118"/>
-      <c r="I53" s="118"/>
-      <c r="J53" s="118"/>
-      <c r="K53" s="118"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="120"/>
+      <c r="J53" s="120"/>
+      <c r="K53" s="120"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -4439,7 +4439,7 @@
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="1:14" ht="24.75" customHeight="1">
-      <c r="B57" s="137" t="str">
+      <c r="B57" s="125" t="str">
         <f>C7</f>
         <v>PROMETAL INTERNATIONAL CO., LTD</v>
       </c>
@@ -4447,7 +4447,7 @@
       <c r="D57" s="126"/>
       <c r="E57" s="2"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="137">
+      <c r="G57" s="125">
         <f>C9</f>
         <v>0</v>
       </c>
@@ -19501,22 +19501,23 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N8"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L13:N13"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
@@ -19528,23 +19529,22 @@
     <mergeCell ref="C32:I32"/>
     <mergeCell ref="C37:J37"/>
     <mergeCell ref="C38:J38"/>
-    <mergeCell ref="L7:N8"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
   </mergeCells>
   <phoneticPr fontId="53" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -19563,8 +19563,8 @@
   </sheetPr>
   <dimension ref="A1:AZ993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33:R33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -19618,62 +19618,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="27" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="203" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
       <c r="Y1" s="37"/>
       <c r="AZ1" s="1"/>
     </row>
     <row r="2" spans="1:52" ht="29.25" customHeight="1">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="118"/>
-      <c r="W2" s="118"/>
-      <c r="X2" s="118"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
       <c r="Y2" s="39"/>
       <c r="AZ2" s="1"/>
     </row>
@@ -19708,36 +19708,36 @@
     <row r="4" spans="1:52" ht="18.75" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="41"/>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="205" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="190">
+      <c r="D4" s="156"/>
+      <c r="E4" s="206">
         <f>T24-I24-S27-S28-S29-S30-H29-H30</f>
         <v>0</v>
       </c>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="159"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="156"/>
       <c r="J4" s="46"/>
       <c r="K4" s="46"/>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
       <c r="N4" s="43"/>
       <c r="O4" s="46"/>
-      <c r="P4" s="163" t="s">
+      <c r="P4" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="191" t="s">
+      <c r="Q4" s="165"/>
+      <c r="R4" s="145"/>
+      <c r="S4" s="207" t="s">
         <v>82</v>
       </c>
-      <c r="T4" s="158"/>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158"/>
-      <c r="W4" s="159"/>
+      <c r="T4" s="194"/>
+      <c r="U4" s="194"/>
+      <c r="V4" s="194"/>
+      <c r="W4" s="156"/>
       <c r="X4" s="38"/>
       <c r="Y4" s="47"/>
       <c r="AZ4" s="1"/>
@@ -19745,36 +19745,36 @@
     <row r="5" spans="1:52" ht="18.75" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="41"/>
-      <c r="C5" s="194" t="s">
+      <c r="C5" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="159"/>
-      <c r="E5" s="192" t="e">
+      <c r="D5" s="156"/>
+      <c r="E5" s="208" t="e">
         <f>E4/T24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="159"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="156"/>
       <c r="J5" s="46"/>
       <c r="K5" s="46"/>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
       <c r="N5" s="43"/>
       <c r="O5" s="46"/>
-      <c r="P5" s="196" t="s">
+      <c r="P5" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="193" t="s">
+      <c r="Q5" s="149"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="158"/>
-      <c r="U5" s="158"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="159"/>
+      <c r="T5" s="194"/>
+      <c r="U5" s="194"/>
+      <c r="V5" s="194"/>
+      <c r="W5" s="156"/>
       <c r="X5" s="38"/>
       <c r="Y5" s="44"/>
       <c r="AZ5" s="1"/>
@@ -19812,932 +19812,932 @@
       <c r="B7" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="211" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="159"/>
+      <c r="D7" s="156"/>
       <c r="E7" s="48"/>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="159"/>
+      <c r="G7" s="156"/>
       <c r="H7" s="49"/>
-      <c r="I7" s="162" t="s">
+      <c r="I7" s="212" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="158"/>
+      <c r="J7" s="194"/>
       <c r="K7" s="113"/>
       <c r="L7" s="114"/>
-      <c r="M7" s="197" t="s">
+      <c r="M7" s="214" t="s">
         <v>90</v>
       </c>
-      <c r="N7" s="139"/>
-      <c r="O7" s="198"/>
-      <c r="P7" s="202" t="str">
+      <c r="N7" s="118"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="215" t="str">
         <f>PI!C36</f>
         <v>Foshan Port</v>
       </c>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="198"/>
-      <c r="S7" s="205" t="s">
+      <c r="Q7" s="118"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="216" t="s">
         <v>91</v>
       </c>
-      <c r="T7" s="206" t="s">
+      <c r="T7" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="U7" s="139"/>
-      <c r="V7" s="139"/>
-      <c r="W7" s="139"/>
-      <c r="X7" s="207"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="118"/>
+      <c r="W7" s="118"/>
+      <c r="X7" s="162"/>
       <c r="Y7" s="50"/>
       <c r="AZ7" s="1"/>
     </row>
     <row r="8" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="218" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="143"/>
-      <c r="C8" s="150" t="s">
+      <c r="B8" s="145"/>
+      <c r="C8" s="235" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="151"/>
-      <c r="E8" s="145" t="s">
+      <c r="D8" s="147"/>
+      <c r="E8" s="164" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="146"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="210" t="s">
+      <c r="F8" s="165"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="209"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="200"/>
-      <c r="P8" s="203"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="200"/>
-      <c r="S8" s="172"/>
-      <c r="T8" s="203"/>
-      <c r="U8" s="118"/>
-      <c r="V8" s="118"/>
-      <c r="W8" s="118"/>
-      <c r="X8" s="208"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="178"/>
+      <c r="M8" s="182"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="185"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="159"/>
+      <c r="S8" s="188"/>
+      <c r="T8" s="185"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="192"/>
       <c r="Y8" s="50"/>
       <c r="AZ8" s="1"/>
     </row>
     <row r="9" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="219" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="148"/>
-      <c r="C9" s="185" t="s">
+      <c r="B9" s="150"/>
+      <c r="C9" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="148"/>
+      <c r="D9" s="150"/>
       <c r="E9" s="51" t="s">
         <v>99</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
-      <c r="H9" s="185" t="s">
+      <c r="H9" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="183"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="204"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="173"/>
-      <c r="T9" s="204"/>
-      <c r="U9" s="125"/>
-      <c r="V9" s="125"/>
-      <c r="W9" s="125"/>
-      <c r="X9" s="209"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="189"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="128"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="178"/>
       <c r="Y9" s="50"/>
       <c r="AZ9" s="1"/>
     </row>
     <row r="10" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="218" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="145" t="s">
+      <c r="B10" s="145"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="164" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="211" t="s">
+      <c r="F10" s="165"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="180" t="s">
         <v>102</v>
       </c>
       <c r="N10" s="126"/>
-      <c r="O10" s="212"/>
-      <c r="P10" s="213">
+      <c r="O10" s="181"/>
+      <c r="P10" s="184">
         <f>PI!C9</f>
         <v>0</v>
       </c>
       <c r="Q10" s="126"/>
-      <c r="R10" s="212"/>
-      <c r="S10" s="214" t="s">
+      <c r="R10" s="181"/>
+      <c r="S10" s="187" t="s">
         <v>103</v>
       </c>
-      <c r="T10" s="215" t="str">
+      <c r="T10" s="190" t="str">
         <f>PI!I7</f>
         <v>PS220404405</v>
       </c>
       <c r="U10" s="126"/>
       <c r="V10" s="126"/>
       <c r="W10" s="126"/>
-      <c r="X10" s="216"/>
+      <c r="X10" s="191"/>
       <c r="Y10" s="50"/>
       <c r="AZ10" s="1"/>
     </row>
     <row r="11" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="219" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="148"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="148"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="150"/>
       <c r="E11" s="51" t="s">
         <v>99</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="183"/>
-      <c r="M11" s="199"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="200"/>
-      <c r="P11" s="203"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="200"/>
-      <c r="S11" s="172"/>
-      <c r="T11" s="203"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="118"/>
-      <c r="W11" s="118"/>
-      <c r="X11" s="208"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="182"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="185"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="188"/>
+      <c r="T11" s="185"/>
+      <c r="U11" s="120"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="120"/>
+      <c r="X11" s="192"/>
       <c r="Y11" s="50"/>
       <c r="AZ11" s="1"/>
     </row>
     <row r="12" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A12" s="142" t="s">
+      <c r="A12" s="218" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="143"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="145" t="s">
+      <c r="B12" s="145"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="164" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="146"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="199"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="200"/>
-      <c r="P12" s="203"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="200"/>
-      <c r="S12" s="172"/>
-      <c r="T12" s="203"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="208"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="167"/>
+      <c r="M12" s="182"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="159"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="159"/>
+      <c r="S12" s="188"/>
+      <c r="T12" s="185"/>
+      <c r="U12" s="120"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="192"/>
       <c r="Y12" s="50"/>
       <c r="AZ12" s="1"/>
     </row>
     <row r="13" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A13" s="149" t="s">
+      <c r="A13" s="219" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="148"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="148"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="150"/>
       <c r="E13" s="51" t="s">
         <v>99</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="183"/>
-      <c r="M13" s="201"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="204"/>
-      <c r="Q13" s="125"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="204"/>
-      <c r="U13" s="125"/>
-      <c r="V13" s="125"/>
-      <c r="W13" s="125"/>
-      <c r="X13" s="209"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="183"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="147"/>
+      <c r="P13" s="186"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="189"/>
+      <c r="T13" s="186"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="178"/>
       <c r="Y13" s="50"/>
       <c r="AZ13" s="1"/>
     </row>
     <row r="14" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="218" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="143"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="145" t="s">
+      <c r="B14" s="145"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="164" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="146"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="211" t="s">
+      <c r="F14" s="165"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="167"/>
+      <c r="M14" s="180" t="s">
         <v>97</v>
       </c>
       <c r="N14" s="126"/>
-      <c r="O14" s="212"/>
-      <c r="P14" s="213" t="str">
+      <c r="O14" s="181"/>
+      <c r="P14" s="184" t="str">
         <f>PI!C34</f>
         <v>CIF Buenaventura, Colombia</v>
       </c>
       <c r="Q14" s="126"/>
-      <c r="R14" s="212"/>
-      <c r="S14" s="221" t="s">
+      <c r="R14" s="181"/>
+      <c r="S14" s="199" t="s">
         <v>99</v>
       </c>
-      <c r="T14" s="223" t="s">
+      <c r="T14" s="201" t="s">
         <v>106</v>
       </c>
       <c r="U14" s="126"/>
       <c r="V14" s="126"/>
       <c r="W14" s="126"/>
-      <c r="X14" s="216"/>
+      <c r="X14" s="191"/>
       <c r="Y14" s="52"/>
       <c r="AZ14" s="1"/>
     </row>
     <row r="15" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="219" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="150"/>
       <c r="E15" s="51" t="s">
         <v>99</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="199"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="200"/>
-      <c r="P15" s="203"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="200"/>
-      <c r="S15" s="172"/>
-      <c r="T15" s="203"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="208"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="182"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="159"/>
+      <c r="P15" s="185"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="159"/>
+      <c r="S15" s="188"/>
+      <c r="T15" s="185"/>
+      <c r="U15" s="120"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="192"/>
       <c r="Y15" s="52"/>
       <c r="AZ15" s="1"/>
     </row>
     <row r="16" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="218" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="145" t="s">
+      <c r="B16" s="145"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="164" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="146"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="199"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="200"/>
-      <c r="P16" s="203"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="200"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="203"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="208"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="167"/>
+      <c r="M16" s="182"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="159"/>
+      <c r="P16" s="185"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="159"/>
+      <c r="S16" s="188"/>
+      <c r="T16" s="185"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="192"/>
       <c r="Y16" s="52"/>
       <c r="AZ16" s="1"/>
     </row>
     <row r="17" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A17" s="149" t="s">
+      <c r="A17" s="219" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="148"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="228"/>
+      <c r="D17" s="150"/>
       <c r="E17" s="51" t="s">
         <v>99</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="218"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="219"/>
-      <c r="P17" s="220"/>
-      <c r="Q17" s="141"/>
-      <c r="R17" s="219"/>
-      <c r="S17" s="222"/>
-      <c r="T17" s="220"/>
-      <c r="U17" s="141"/>
-      <c r="V17" s="141"/>
-      <c r="W17" s="141"/>
-      <c r="X17" s="161"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="196"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="197"/>
+      <c r="P17" s="198"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="197"/>
+      <c r="S17" s="200"/>
+      <c r="T17" s="198"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="122"/>
+      <c r="W17" s="122"/>
+      <c r="X17" s="202"/>
       <c r="Y17" s="52"/>
       <c r="AZ17" s="1"/>
     </row>
     <row r="18" spans="1:52" ht="18.75" customHeight="1">
-      <c r="A18" s="153" t="s">
+      <c r="A18" s="222" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="146"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="154" t="s">
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="220" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="146"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="154" t="s">
+      <c r="F18" s="165"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="220" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="153" t="s">
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="167"/>
+      <c r="M18" s="222" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="146"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="154" t="s">
+      <c r="N18" s="165"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="220" t="s">
         <v>109</v>
       </c>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="143"/>
-      <c r="S18" s="154" t="s">
+      <c r="Q18" s="165"/>
+      <c r="R18" s="145"/>
+      <c r="S18" s="220" t="s">
         <v>110</v>
       </c>
-      <c r="T18" s="146"/>
-      <c r="U18" s="146"/>
-      <c r="V18" s="146"/>
-      <c r="W18" s="146"/>
-      <c r="X18" s="165"/>
+      <c r="T18" s="165"/>
+      <c r="U18" s="165"/>
+      <c r="V18" s="165"/>
+      <c r="W18" s="165"/>
+      <c r="X18" s="167"/>
       <c r="Y18" s="44"/>
       <c r="AZ18" s="1"/>
     </row>
     <row r="19" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A19" s="174">
+      <c r="A19" s="172">
         <v>1</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="178" t="s">
+      <c r="B19" s="173"/>
+      <c r="C19" s="226" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="152"/>
-      <c r="E19" s="177">
+      <c r="D19" s="173"/>
+      <c r="E19" s="227">
         <f>AF42</f>
         <v>0</v>
       </c>
-      <c r="F19" s="171"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="179">
+      <c r="F19" s="169"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="168">
         <f>AK42+AP42</f>
         <v>0</v>
       </c>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="180"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="169"/>
+      <c r="K19" s="169"/>
+      <c r="L19" s="170"/>
       <c r="M19" s="53">
         <f>A19</f>
         <v>1</v>
       </c>
-      <c r="N19" s="176" t="str">
+      <c r="N19" s="221" t="str">
         <f>C19</f>
         <v>萬裕隆/430</v>
       </c>
-      <c r="O19" s="152"/>
-      <c r="P19" s="177">
+      <c r="O19" s="173"/>
+      <c r="P19" s="227">
         <f t="shared" ref="P19:P23" si="0">E19</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="171"/>
-      <c r="R19" s="152"/>
-      <c r="S19" s="179">
+      <c r="Q19" s="169"/>
+      <c r="R19" s="173"/>
+      <c r="S19" s="168">
         <f>AU42</f>
         <v>0</v>
       </c>
-      <c r="T19" s="171"/>
-      <c r="U19" s="171"/>
-      <c r="V19" s="171"/>
-      <c r="W19" s="171"/>
-      <c r="X19" s="180"/>
+      <c r="T19" s="169"/>
+      <c r="U19" s="169"/>
+      <c r="V19" s="169"/>
+      <c r="W19" s="169"/>
+      <c r="X19" s="170"/>
       <c r="Y19" s="54"/>
       <c r="AZ19" s="1"/>
     </row>
     <row r="20" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A20" s="174">
+      <c r="A20" s="172">
         <v>2</v>
       </c>
-      <c r="B20" s="152"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="177">
+      <c r="B20" s="173"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="227">
         <f>AG42</f>
         <v>0</v>
       </c>
-      <c r="F20" s="171"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="181">
+      <c r="F20" s="169"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="223">
         <f>AL42+AQ42</f>
         <v>0</v>
       </c>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="180"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="170"/>
       <c r="M20" s="53">
         <v>2</v>
       </c>
-      <c r="N20" s="176">
+      <c r="N20" s="221">
         <f t="shared" ref="N20:N23" si="1">B20</f>
         <v>0</v>
       </c>
-      <c r="O20" s="152"/>
-      <c r="P20" s="177">
+      <c r="O20" s="173"/>
+      <c r="P20" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="171"/>
-      <c r="R20" s="152"/>
-      <c r="S20" s="179">
+      <c r="Q20" s="169"/>
+      <c r="R20" s="173"/>
+      <c r="S20" s="168">
         <f>AV42</f>
         <v>0</v>
       </c>
-      <c r="T20" s="171"/>
-      <c r="U20" s="171"/>
-      <c r="V20" s="171"/>
-      <c r="W20" s="171"/>
-      <c r="X20" s="180"/>
+      <c r="T20" s="169"/>
+      <c r="U20" s="169"/>
+      <c r="V20" s="169"/>
+      <c r="W20" s="169"/>
+      <c r="X20" s="170"/>
       <c r="Y20" s="54"/>
       <c r="AZ20" s="1"/>
     </row>
     <row r="21" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A21" s="174">
+      <c r="A21" s="172">
         <v>3</v>
       </c>
-      <c r="B21" s="152"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="177">
+      <c r="B21" s="173"/>
+      <c r="C21" s="226"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="227">
         <f>AH42</f>
         <v>0</v>
       </c>
-      <c r="F21" s="171"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="181">
+      <c r="F21" s="169"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="223">
         <f>AM42+AR42</f>
         <v>0</v>
       </c>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="180"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="169"/>
+      <c r="L21" s="170"/>
       <c r="M21" s="53">
         <v>3</v>
       </c>
-      <c r="N21" s="176">
+      <c r="N21" s="221">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="152"/>
-      <c r="P21" s="177">
+      <c r="O21" s="173"/>
+      <c r="P21" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="171"/>
-      <c r="R21" s="152"/>
-      <c r="S21" s="179">
+      <c r="Q21" s="169"/>
+      <c r="R21" s="173"/>
+      <c r="S21" s="168">
         <f>AW42</f>
         <v>0</v>
       </c>
-      <c r="T21" s="171"/>
-      <c r="U21" s="171"/>
-      <c r="V21" s="171"/>
-      <c r="W21" s="171"/>
-      <c r="X21" s="180"/>
+      <c r="T21" s="169"/>
+      <c r="U21" s="169"/>
+      <c r="V21" s="169"/>
+      <c r="W21" s="169"/>
+      <c r="X21" s="170"/>
       <c r="Y21" s="54"/>
       <c r="AZ21" s="1"/>
     </row>
     <row r="22" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A22" s="174">
+      <c r="A22" s="172">
         <v>4</v>
       </c>
-      <c r="B22" s="152"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="177">
+      <c r="B22" s="173"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="227">
         <f>AI42</f>
         <v>0</v>
       </c>
-      <c r="F22" s="171"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="181">
+      <c r="F22" s="169"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="223">
         <f>AN42+AS42</f>
         <v>0</v>
       </c>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="180"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="169"/>
+      <c r="L22" s="170"/>
       <c r="M22" s="53">
         <v>4</v>
       </c>
-      <c r="N22" s="176">
+      <c r="N22" s="221">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="152"/>
-      <c r="P22" s="177">
+      <c r="O22" s="173"/>
+      <c r="P22" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="171"/>
-      <c r="R22" s="152"/>
-      <c r="S22" s="179">
+      <c r="Q22" s="169"/>
+      <c r="R22" s="173"/>
+      <c r="S22" s="168">
         <f>AX42</f>
         <v>0</v>
       </c>
-      <c r="T22" s="171"/>
-      <c r="U22" s="171"/>
-      <c r="V22" s="171"/>
-      <c r="W22" s="171"/>
-      <c r="X22" s="180"/>
+      <c r="T22" s="169"/>
+      <c r="U22" s="169"/>
+      <c r="V22" s="169"/>
+      <c r="W22" s="169"/>
+      <c r="X22" s="170"/>
       <c r="Y22" s="54"/>
       <c r="AZ22" s="1"/>
     </row>
     <row r="23" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A23" s="174">
+      <c r="A23" s="172">
         <v>5</v>
       </c>
-      <c r="B23" s="152"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="177">
+      <c r="B23" s="173"/>
+      <c r="C23" s="226"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="227">
         <f>AJ42</f>
         <v>0</v>
       </c>
-      <c r="F23" s="171"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="181">
+      <c r="F23" s="169"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="223">
         <f>AO42+AT42</f>
         <v>0</v>
       </c>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="180"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="169"/>
+      <c r="L23" s="170"/>
       <c r="M23" s="53">
         <v>5</v>
       </c>
-      <c r="N23" s="176">
+      <c r="N23" s="221">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="152"/>
-      <c r="P23" s="177">
+      <c r="O23" s="173"/>
+      <c r="P23" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="171"/>
-      <c r="R23" s="152"/>
-      <c r="S23" s="179">
+      <c r="Q23" s="169"/>
+      <c r="R23" s="173"/>
+      <c r="S23" s="168">
         <f>AY42</f>
         <v>0</v>
       </c>
-      <c r="T23" s="171"/>
-      <c r="U23" s="171"/>
-      <c r="V23" s="171"/>
-      <c r="W23" s="171"/>
-      <c r="X23" s="180"/>
+      <c r="T23" s="169"/>
+      <c r="U23" s="169"/>
+      <c r="V23" s="169"/>
+      <c r="W23" s="169"/>
+      <c r="X23" s="170"/>
       <c r="Y23" s="54"/>
       <c r="AZ23" s="1"/>
     </row>
     <row r="24" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A24" s="184" t="s">
+      <c r="A24" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="155">
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="225">
         <f>SUM(E19:G23)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="156"/>
-      <c r="G24" s="148"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="150"/>
       <c r="H24" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="182">
+      <c r="I24" s="224">
         <f>SUM(H19:L23)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="183"/>
-      <c r="M24" s="184" t="s">
+      <c r="J24" s="149"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="N24" s="156"/>
-      <c r="O24" s="148"/>
-      <c r="P24" s="155">
+      <c r="N24" s="149"/>
+      <c r="O24" s="150"/>
+      <c r="P24" s="225">
         <f>SUM(P19:R23)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="156"/>
-      <c r="R24" s="148"/>
+      <c r="Q24" s="149"/>
+      <c r="R24" s="150"/>
       <c r="S24" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="T24" s="224">
+      <c r="T24" s="171">
         <f>SUM(S19:W23)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="156"/>
-      <c r="V24" s="156"/>
-      <c r="W24" s="156"/>
-      <c r="X24" s="183"/>
+      <c r="U24" s="149"/>
+      <c r="V24" s="149"/>
+      <c r="W24" s="149"/>
+      <c r="X24" s="152"/>
       <c r="Y24" s="57"/>
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="1:52" ht="27" customHeight="1">
-      <c r="A25" s="157" t="s">
+      <c r="A25" s="229" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="158"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="158"/>
-      <c r="T25" s="158"/>
-      <c r="U25" s="158"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="159"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="194"/>
+      <c r="L25" s="194"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="194"/>
+      <c r="O25" s="194"/>
+      <c r="P25" s="194"/>
+      <c r="Q25" s="194"/>
+      <c r="R25" s="194"/>
+      <c r="S25" s="194"/>
+      <c r="T25" s="194"/>
+      <c r="U25" s="194"/>
+      <c r="V25" s="194"/>
+      <c r="W25" s="194"/>
+      <c r="X25" s="156"/>
       <c r="Y25" s="44"/>
       <c r="AZ25" s="1"/>
     </row>
     <row r="26" spans="1:52" ht="27" customHeight="1">
-      <c r="A26" s="160" t="s">
+      <c r="A26" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="162" t="s">
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="202"/>
+      <c r="M26" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="158"/>
-      <c r="T26" s="158"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="159"/>
+      <c r="N26" s="194"/>
+      <c r="O26" s="194"/>
+      <c r="P26" s="194"/>
+      <c r="Q26" s="194"/>
+      <c r="R26" s="194"/>
+      <c r="S26" s="194"/>
+      <c r="T26" s="194"/>
+      <c r="U26" s="194"/>
+      <c r="V26" s="194"/>
+      <c r="W26" s="194"/>
+      <c r="X26" s="156"/>
       <c r="Y26" s="44"/>
       <c r="AZ26" s="1"/>
     </row>
     <row r="27" spans="1:52" ht="27" customHeight="1">
-      <c r="A27" s="163" t="s">
+      <c r="A27" s="213" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="146"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="164">
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="231">
         <f>V49</f>
         <v>0</v>
       </c>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="165"/>
-      <c r="M27" s="166" t="s">
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="167"/>
+      <c r="M27" s="232" t="s">
         <v>118</v>
       </c>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="167">
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="147"/>
+      <c r="S27" s="233">
         <f>SUM(M50:M55)</f>
         <v>0</v>
       </c>
-      <c r="T27" s="146"/>
-      <c r="U27" s="146"/>
-      <c r="V27" s="146"/>
-      <c r="W27" s="146"/>
-      <c r="X27" s="165"/>
+      <c r="T27" s="165"/>
+      <c r="U27" s="165"/>
+      <c r="V27" s="165"/>
+      <c r="W27" s="165"/>
+      <c r="X27" s="167"/>
       <c r="Y27" s="54"/>
       <c r="AZ27" s="1"/>
     </row>
     <row r="28" spans="1:52" ht="27" customHeight="1">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="171"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="179">
+      <c r="B28" s="169"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="168">
         <f>AB45</f>
         <v>0</v>
       </c>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="171"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="226" t="s">
+      <c r="I28" s="169"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="169"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="175" t="s">
         <v>120</v>
       </c>
-      <c r="N28" s="171"/>
-      <c r="O28" s="171"/>
+      <c r="N28" s="169"/>
+      <c r="O28" s="169"/>
       <c r="P28" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="Q28" s="227">
+      <c r="Q28" s="176">
         <f>F55</f>
         <v>0</v>
       </c>
-      <c r="R28" s="180"/>
-      <c r="S28" s="225">
+      <c r="R28" s="170"/>
+      <c r="S28" s="174">
         <f>F58</f>
         <v>0</v>
       </c>
-      <c r="T28" s="171"/>
-      <c r="U28" s="171"/>
-      <c r="V28" s="171"/>
-      <c r="W28" s="171"/>
-      <c r="X28" s="180"/>
+      <c r="T28" s="169"/>
+      <c r="U28" s="169"/>
+      <c r="V28" s="169"/>
+      <c r="W28" s="169"/>
+      <c r="X28" s="170"/>
       <c r="Y28" s="59"/>
       <c r="AZ28" s="1"/>
     </row>
     <row r="29" spans="1:52" ht="27" customHeight="1">
-      <c r="A29" s="174" t="s">
+      <c r="A29" s="172" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="179">
+      <c r="B29" s="169"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="168">
         <f>AD45</f>
         <v>0</v>
       </c>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="174" t="s">
+      <c r="I29" s="169"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="169"/>
+      <c r="L29" s="170"/>
+      <c r="M29" s="172" t="s">
         <v>123</v>
       </c>
-      <c r="N29" s="171"/>
-      <c r="O29" s="171"/>
-      <c r="P29" s="171"/>
-      <c r="Q29" s="171"/>
-      <c r="R29" s="152"/>
-      <c r="S29" s="225">
+      <c r="N29" s="169"/>
+      <c r="O29" s="169"/>
+      <c r="P29" s="169"/>
+      <c r="Q29" s="169"/>
+      <c r="R29" s="173"/>
+      <c r="S29" s="174">
         <f>E46</f>
         <v>0</v>
       </c>
-      <c r="T29" s="171"/>
-      <c r="U29" s="171"/>
-      <c r="V29" s="171"/>
-      <c r="W29" s="171"/>
-      <c r="X29" s="180"/>
+      <c r="T29" s="169"/>
+      <c r="U29" s="169"/>
+      <c r="V29" s="169"/>
+      <c r="W29" s="169"/>
+      <c r="X29" s="170"/>
       <c r="Y29" s="60"/>
       <c r="AZ29" s="1"/>
     </row>
     <row r="30" spans="1:52" ht="27" customHeight="1">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="228"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="183"/>
-      <c r="M30" s="196" t="s">
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="156"/>
-      <c r="Q30" s="156"/>
-      <c r="R30" s="156"/>
-      <c r="S30" s="229">
+      <c r="N30" s="149"/>
+      <c r="O30" s="149"/>
+      <c r="P30" s="149"/>
+      <c r="Q30" s="149"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="154">
         <f>AE45</f>
         <v>0</v>
       </c>
-      <c r="T30" s="156"/>
-      <c r="U30" s="156"/>
-      <c r="V30" s="156"/>
-      <c r="W30" s="156"/>
-      <c r="X30" s="183"/>
+      <c r="T30" s="149"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="149"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="152"/>
       <c r="Y30" s="60"/>
       <c r="AZ30" s="1"/>
     </row>
@@ -20763,8 +20763,8 @@
       <c r="S31" s="62"/>
       <c r="T31" s="62"/>
       <c r="U31" s="63"/>
-      <c r="V31" s="230"/>
-      <c r="W31" s="159"/>
+      <c r="V31" s="155"/>
+      <c r="W31" s="156"/>
       <c r="X31" s="49">
         <f>T55</f>
         <v>0</v>
@@ -20773,68 +20773,68 @@
       <c r="AZ31" s="1"/>
     </row>
     <row r="32" spans="1:52" ht="16.5" customHeight="1">
-      <c r="A32" s="231" t="s">
+      <c r="A32" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="232" t="s">
+      <c r="B32" s="120"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="158" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="200"/>
-      <c r="M32" s="232" t="s">
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="120"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="158" t="s">
         <v>128</v>
       </c>
-      <c r="N32" s="118"/>
-      <c r="O32" s="118"/>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="170"/>
-      <c r="S32" s="233" t="s">
+      <c r="N32" s="120"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="120"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="160"/>
+      <c r="S32" s="161" t="s">
         <v>129</v>
       </c>
-      <c r="T32" s="139"/>
-      <c r="U32" s="139"/>
-      <c r="V32" s="139"/>
-      <c r="W32" s="139"/>
-      <c r="X32" s="207"/>
+      <c r="T32" s="118"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="118"/>
+      <c r="X32" s="162"/>
       <c r="Y32" s="44"/>
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="1:52" ht="67.5" customHeight="1">
-      <c r="A33" s="175"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="159"/>
-      <c r="M33" s="217"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="158"/>
-      <c r="R33" s="159"/>
-      <c r="S33" s="217" t="s">
+      <c r="A33" s="193"/>
+      <c r="B33" s="194"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="195"/>
+      <c r="N33" s="194"/>
+      <c r="O33" s="194"/>
+      <c r="P33" s="194"/>
+      <c r="Q33" s="194"/>
+      <c r="R33" s="156"/>
+      <c r="S33" s="195" t="s">
         <v>130</v>
       </c>
-      <c r="T33" s="158"/>
-      <c r="U33" s="158"/>
-      <c r="V33" s="158"/>
-      <c r="W33" s="158"/>
-      <c r="X33" s="159"/>
+      <c r="T33" s="194"/>
+      <c r="U33" s="194"/>
+      <c r="V33" s="194"/>
+      <c r="W33" s="194"/>
+      <c r="X33" s="156"/>
       <c r="Y33" s="65"/>
       <c r="AZ33" s="1"/>
     </row>
@@ -20918,10 +20918,10 @@
       <c r="Q35" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="R35" s="234" t="s">
+      <c r="R35" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="S35" s="198"/>
+      <c r="S35" s="143"/>
       <c r="T35" s="74" t="s">
         <v>148</v>
       </c>
@@ -20994,10 +20994,10 @@
       <c r="Q36" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="R36" s="235" t="s">
+      <c r="R36" s="144" t="s">
         <v>160</v>
       </c>
-      <c r="S36" s="143"/>
+      <c r="S36" s="145"/>
       <c r="T36" s="85" t="s">
         <v>161</v>
       </c>
@@ -21067,7 +21067,7 @@
       </c>
       <c r="O37" s="100">
         <f t="shared" ref="O37:O40" si="3">U37+V37+W37+X37</f>
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="P37" s="100">
         <f t="shared" ref="P37:P40" si="4">$T$52</f>
@@ -21075,13 +21075,13 @@
       </c>
       <c r="Q37" s="101">
         <f t="shared" ref="Q37:Q40" si="5">G37-K37-M37-N37-O37-P37-L37</f>
-        <v>490</v>
+        <v>530</v>
       </c>
-      <c r="R37" s="168">
+      <c r="R37" s="146">
         <f>PI!F20*1000</f>
         <v>12000</v>
       </c>
-      <c r="S37" s="151"/>
+      <c r="S37" s="147"/>
       <c r="T37" s="102">
         <f t="shared" ref="T37:T40" si="6">Q37*R37/1000*$T$55</f>
         <v>0</v>
@@ -21095,12 +21095,10 @@
       <c r="W37" s="95">
         <v>45</v>
       </c>
-      <c r="X37" s="103">
-        <v>40</v>
-      </c>
+      <c r="X37" s="103"/>
       <c r="Y37" s="104">
         <f>(K37+O37)-J37</f>
-        <v>1685</v>
+        <v>1645</v>
       </c>
       <c r="AZ37" s="88"/>
     </row>
@@ -21155,7 +21153,7 @@
       </c>
       <c r="O38" s="100">
         <f>U38+V38+W38+X38</f>
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="P38" s="100">
         <f>$T$52</f>
@@ -21163,13 +21161,13 @@
       </c>
       <c r="Q38" s="101">
         <f t="shared" si="5"/>
-        <v>490</v>
+        <v>545</v>
       </c>
-      <c r="R38" s="168">
+      <c r="R38" s="146">
         <f>PI!F21*1000</f>
         <v>4000</v>
       </c>
-      <c r="S38" s="151"/>
+      <c r="S38" s="147"/>
       <c r="T38" s="102">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -21183,12 +21181,10 @@
       <c r="W38" s="95">
         <v>45</v>
       </c>
-      <c r="X38" s="103">
-        <v>55</v>
-      </c>
+      <c r="X38" s="103"/>
       <c r="Y38" s="104">
-        <f t="shared" ref="Y37:Y40" si="7">(K38+O38)-J38</f>
-        <v>1700</v>
+        <f t="shared" ref="Y38:Y40" si="7">(K38+O38)-J38</f>
+        <v>1645</v>
       </c>
       <c r="AZ38" s="88"/>
     </row>
@@ -21243,7 +21239,7 @@
       </c>
       <c r="O39" s="100">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="P39" s="100">
         <f t="shared" si="4"/>
@@ -21251,13 +21247,13 @@
       </c>
       <c r="Q39" s="101">
         <f t="shared" si="5"/>
-        <v>610</v>
+        <v>670</v>
       </c>
-      <c r="R39" s="168">
+      <c r="R39" s="146">
         <f>PI!F22*1000</f>
         <v>5000</v>
       </c>
-      <c r="S39" s="151"/>
+      <c r="S39" s="147"/>
       <c r="T39" s="102">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -21271,12 +21267,10 @@
       <c r="W39" s="95">
         <v>0</v>
       </c>
-      <c r="X39" s="103">
-        <v>60</v>
-      </c>
+      <c r="X39" s="103"/>
       <c r="Y39" s="104">
         <f t="shared" si="7"/>
-        <v>1780</v>
+        <v>1720</v>
       </c>
       <c r="AZ39" s="88"/>
     </row>
@@ -21331,7 +21325,7 @@
       </c>
       <c r="O40" s="100">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="P40" s="100">
         <f t="shared" si="4"/>
@@ -21339,13 +21333,13 @@
       </c>
       <c r="Q40" s="101">
         <f t="shared" si="5"/>
-        <v>555</v>
+        <v>595</v>
       </c>
-      <c r="R40" s="168">
+      <c r="R40" s="146">
         <f>PI!F23*1000</f>
         <v>4000</v>
       </c>
-      <c r="S40" s="151"/>
+      <c r="S40" s="147"/>
       <c r="T40" s="102">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -21359,12 +21353,10 @@
       <c r="W40" s="95">
         <v>55</v>
       </c>
-      <c r="X40" s="103">
-        <v>40</v>
-      </c>
+      <c r="X40" s="103"/>
       <c r="Y40" s="104">
         <f t="shared" si="7"/>
-        <v>1745</v>
+        <v>1705</v>
       </c>
       <c r="AZ40" s="88"/>
     </row>
@@ -21397,32 +21389,32 @@
       <c r="AZ41" s="88"/>
     </row>
     <row r="42" spans="1:52" ht="21" customHeight="1">
-      <c r="A42" s="169" t="s">
+      <c r="A42" s="234" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="170"/>
-      <c r="K42" s="170"/>
-      <c r="L42" s="170"/>
-      <c r="M42" s="170"/>
-      <c r="N42" s="170"/>
-      <c r="O42" s="170"/>
-      <c r="P42" s="170"/>
-      <c r="Q42" s="170"/>
-      <c r="R42" s="170"/>
-      <c r="S42" s="170"/>
-      <c r="T42" s="170"/>
-      <c r="U42" s="170"/>
-      <c r="V42" s="170"/>
-      <c r="W42" s="170"/>
-      <c r="X42" s="170"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
+      <c r="K42" s="160"/>
+      <c r="L42" s="160"/>
+      <c r="M42" s="160"/>
+      <c r="N42" s="160"/>
+      <c r="O42" s="160"/>
+      <c r="P42" s="160"/>
+      <c r="Q42" s="160"/>
+      <c r="R42" s="160"/>
+      <c r="S42" s="160"/>
+      <c r="T42" s="160"/>
+      <c r="U42" s="160"/>
+      <c r="V42" s="160"/>
+      <c r="W42" s="160"/>
+      <c r="X42" s="160"/>
       <c r="Y42" s="108"/>
       <c r="AZ42" s="109" t="s">
         <v>163</v>
@@ -47599,53 +47591,62 @@
     </row>
   </sheetData>
   <mergeCells count="143">
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:X32"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="S20:X20"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="S22:X22"/>
-    <mergeCell ref="S23:X23"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:X29"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="M10:O13"/>
-    <mergeCell ref="P10:R13"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="T10:X13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="E33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:X33"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M14:O17"/>
-    <mergeCell ref="P14:R17"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="T14:X17"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="A42:X42"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A25:X25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:X26"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:R23"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="C4:D4"/>
@@ -47666,6 +47667,23 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M10:O13"/>
+    <mergeCell ref="P10:R13"/>
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="T10:X13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M14:O17"/>
+    <mergeCell ref="P14:R17"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="T14:X17"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="S18:X18"/>
     <mergeCell ref="S19:X19"/>
@@ -47675,6 +47693,21 @@
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="P18:R18"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="S20:X20"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="S22:X22"/>
+    <mergeCell ref="S23:X23"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:X29"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:X28"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="I24:L24"/>
@@ -47684,64 +47717,23 @@
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="A25:X25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:X26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:X27"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="A42:X42"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:X32"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:X33"/>
   </mergeCells>
   <phoneticPr fontId="53" type="noConversion"/>
   <dataValidations count="2">
